--- a/Project/Electrified Reactor/Reaction mechanisms/Reference Data.xlsx
+++ b/Project/Electrified Reactor/Reaction mechanisms/Reference Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsjun\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\repos_python\Project\Electrified Reactor\Reaction mechanisms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8F538A9-94C2-4B80-956E-F1510B41389F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FB76D3-49B7-4ABB-B6DD-71FB462A94C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13930" xr2:uid="{23DDCB53-3424-4285-9A3B-832EA3B4340E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="13935" xr2:uid="{23DDCB53-3424-4285-9A3B-832EA3B4340E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,26 @@
     <t>Xexp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>(12,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5,100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5.056,90)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5.078,89.89)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5.08965517,89.55172414)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -126,8 +146,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -145,6 +171,5522 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.8087248322147645E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9946164199192465E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2080536912751678E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15645973154362416</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17530282637954239</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6823687752355317E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.65E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.678E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4993899999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0184E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D72-489D-8719-4DFFA2883033}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1645616448"/>
+        <c:axId val="1875740048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1645616448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1875740048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1875740048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1645616448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.8087248322147645E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9946164199192465E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2080536912751678E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15645973154362416</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17530282637954239</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6823687752355317E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.3358234746033097E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0136583382854099E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5853163034378696E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.216279882668545</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.157265147756044</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2209936152071299E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CEA-438A-8902-3548293E5A5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1645616448"/>
+        <c:axId val="1875740048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1645616448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1875740048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1875740048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1645616448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.8087248322147645E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9946164199192465E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2080536912751678E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15645973154362416</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17530282637954239</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6823687752355317E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.6500541653314403E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1768673655605E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1219793542796302E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15871257353492799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18814231124698999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.29787070835964E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-598D-432D-ABFB-52DB044862F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1645616448"/>
+        <c:axId val="1875740048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1645616448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1875740048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1875740048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1645616448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.8087248322147645E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9946164199192465E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2080536912751678E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15645973154362416</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17530282637954239</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6823687752355317E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.0188314532310002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0458016695646598E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9614612105484598E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15443399071181499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.177756560379944</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.22569802925341E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BBD0-4E50-B208-9536E0C52889}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1645616448"/>
+        <c:axId val="1875740048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1645616448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1875740048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1875740048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1645616448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.8087248322147645E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9946164199192465E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2080536912751678E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15645973154362416</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17530282637954239</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6823687752355317E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.0100051200094804E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0699907897747599E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9074927920781298E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.155279052760772</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17762004434095199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.22945264084639E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1EE5-40F4-B3E5-9403FD7EFD52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1645616448"/>
+        <c:axId val="1875740048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1645616448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1875740048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1875740048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1645616448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.8087248322147645E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9946164199192465E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2080536912751678E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15645973154362416</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17530282637954239</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6823687752355317E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.0288989346926501E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0557661529244001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9529774502042603E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.157017791969527</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.177533485177094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2279617670768499E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3363-4BCA-AAC8-E8401BF19777}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1645616448"/>
+        <c:axId val="1875740048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1645616448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1875740048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1875740048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1645616448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{669356C2-3719-491F-9F52-01638F9C5F9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B6DBD13-A1A7-410E-B96B-5D3ED18B54CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B2FA566-CA74-4222-8A03-3B59F1F960D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{397B8A61-1871-4E16-8B3C-04E70B2EC2BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="차트 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6A645A3-15F4-414F-85C7-E3F58063EC9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="차트 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC5C2824-7520-499D-A34C-E560CC57A2E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,23 +5986,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DCFDE2-46D0-4EC7-BD6D-0B16CFFF6C28}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
     <col min="9" max="10" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,14 +6039,23 @@
       <c r="L1" t="s">
         <v>13</v>
       </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="P1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1">
-        <v>0.70467261499090394</v>
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>950</v>
       </c>
@@ -527,35 +6078,47 @@
         <v>5.5999999999999983E-7</v>
       </c>
       <c r="G2">
-        <f>F2*$Q$1</f>
+        <f>F2*$K$10</f>
         <v>3.9461666439490607E-7</v>
       </c>
       <c r="H2">
-        <v>0.83717215448262905</v>
+        <v>0.83012914599999998</v>
       </c>
       <c r="I2">
-        <f>G2*$Q$2</f>
+        <f>G2*$K$11</f>
         <v>3.3049411733103207E-7</v>
       </c>
       <c r="J2">
         <f>G2*H2</f>
-        <v>3.3036208312623209E-7</v>
+        <v>3.2758279461151199E-7</v>
       </c>
       <c r="K2">
         <f>(I2-J2)/I2</f>
-        <v>3.9950546129608177E-4</v>
+        <v>8.8090001208826728E-3</v>
       </c>
       <c r="L2">
         <v>8.8087248322147645E-3</v>
       </c>
-      <c r="P2" t="s">
-        <v>8</v>
+      <c r="M2">
+        <v>3.65E-3</v>
+      </c>
+      <c r="N2">
+        <v>4.3358234746033097E-3</v>
+      </c>
+      <c r="O2">
+        <v>7.6500541653314403E-3</v>
+      </c>
+      <c r="P2">
+        <v>7.0188314532310002E-3</v>
       </c>
       <c r="Q2">
-        <v>0.83750674300033001</v>
+        <v>7.0100051200094804E-3</v>
+      </c>
+      <c r="R2">
+        <v>7.0288989346926501E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -578,29 +6141,47 @@
         <v>5.5999999999999983E-7</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G7" si="3">F3*$Q$1</f>
+        <f>F3*$K$10</f>
         <v>3.9461666439490607E-7</v>
       </c>
       <c r="H3">
-        <v>0.83602961663231601</v>
+        <v>0.81242676599999997</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I5" si="4">G3*$Q$2</f>
+        <f>G3*$K$11</f>
         <v>3.3049411733103207E-7</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J5" si="5">G3*H3</f>
-        <v>3.2991121865079663E-7</v>
+        <f t="shared" ref="J3:J5" si="3">G3*H3</f>
+        <v>3.2059714046406087E-7</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K5" si="6">(I3-J3)/I3</f>
-        <v>1.7637187764270657E-3</v>
+        <f t="shared" ref="K3:K5" si="4">(I3-J3)/I3</f>
+        <v>2.994600008888542E-2</v>
       </c>
       <c r="L3">
         <v>2.9946164199192465E-2</v>
       </c>
+      <c r="M3">
+        <v>1.678E-2</v>
+      </c>
+      <c r="N3">
+        <v>2.0136583382854099E-2</v>
+      </c>
+      <c r="O3">
+        <v>2.1768673655605E-2</v>
+      </c>
+      <c r="P3">
+        <v>2.0458016695646598E-2</v>
+      </c>
+      <c r="Q3">
+        <v>2.0699907897747599E-2</v>
+      </c>
+      <c r="R3">
+        <v>2.0557661529244001E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1050</v>
       </c>
@@ -623,29 +6204,47 @@
         <v>5.5999999999999983E-7</v>
       </c>
       <c r="G4">
+        <f>F4*$K$10</f>
+        <v>3.9461666439490607E-7</v>
+      </c>
+      <c r="H4">
+        <v>0.78551348700000001</v>
+      </c>
+      <c r="I4">
+        <f>G4*$K$11</f>
+        <v>3.3049411733103207E-7</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="3"/>
-        <v>3.9461666439490607E-7</v>
-      </c>
-      <c r="H4">
-        <v>0.83145159992352502</v>
-      </c>
-      <c r="I4">
+        <v>3.0997671207715142E-7</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="4"/>
-        <v>3.3049411733103207E-7</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="5"/>
-        <v>3.281046569676294E-7</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="6"/>
-        <v>7.2299633733247711E-3</v>
+        <v>6.2080999866420739E-2</v>
       </c>
       <c r="L4">
         <v>6.2080536912751678E-2</v>
       </c>
+      <c r="M4">
+        <v>6.4993899999999993E-2</v>
+      </c>
+      <c r="N4">
+        <v>7.5853163034378696E-2</v>
+      </c>
+      <c r="O4">
+        <v>6.1219793542796302E-2</v>
+      </c>
+      <c r="P4">
+        <v>5.9614612105484598E-2</v>
+      </c>
+      <c r="Q4">
+        <v>5.9074927920781298E-2</v>
+      </c>
+      <c r="R4">
+        <v>5.9529774502042603E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1100</v>
       </c>
@@ -668,29 +6267,47 @@
         <v>5.5999999999999983E-7</v>
       </c>
       <c r="G5">
+        <f>F5*$K$10</f>
+        <v>3.9461666439490607E-7</v>
+      </c>
+      <c r="H5">
+        <v>0.70647043799999998</v>
+      </c>
+      <c r="I5">
+        <f>G5*$K$11</f>
+        <v>3.3049411733103207E-7</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="3"/>
-        <v>3.9461666439490607E-7</v>
-      </c>
-      <c r="H5">
-        <v>0.81487326461031295</v>
-      </c>
-      <c r="I5">
+        <v>2.7878500773716829E-7</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="4"/>
-        <v>3.3049411733103207E-7</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="5"/>
-        <v>3.2156256958510937E-7</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="6"/>
-        <v>2.7024831237696754E-2</v>
+        <v>0.15645999998865487</v>
       </c>
       <c r="L5">
         <v>0.15645973154362416</v>
       </c>
+      <c r="M5">
+        <v>0.19009999999999999</v>
+      </c>
+      <c r="N5">
+        <v>0.216279882668545</v>
+      </c>
+      <c r="O5">
+        <v>0.15871257353492799</v>
+      </c>
+      <c r="P5">
+        <v>0.15443399071181499</v>
+      </c>
+      <c r="Q5">
+        <v>0.155279052760772</v>
+      </c>
+      <c r="R5">
+        <v>0.157017791969527</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1000</v>
       </c>
@@ -709,33 +6326,51 @@
         <v>0.84</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F7" si="7">D6*E6/3600</f>
+        <f t="shared" ref="F6:F7" si="5">D6*E6/3600</f>
         <v>5.5999999999999999E-8</v>
       </c>
       <c r="G6">
-        <f t="shared" si="3"/>
+        <f>F6*$K$10</f>
         <v>3.9461666439490621E-8</v>
       </c>
       <c r="H6">
-        <v>0.822448896762207</v>
+        <v>0.69068929800000001</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I7" si="8">G6*$Q$2</f>
+        <f>G6*$K$11</f>
         <v>3.304941173310322E-8</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J7" si="9">G6*H6</f>
-        <v>3.2455204027557271E-8</v>
+        <f t="shared" ref="J6:J7" si="6">G6*H6</f>
+        <v>2.7255750691001937E-8</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:K7" si="10">(I6-J6)/I6</f>
-        <v>1.7979373138154026E-2</v>
+        <f t="shared" ref="K6:K7" si="7">(I6-J6)/I6</f>
+        <v>0.17530300051598768</v>
       </c>
       <c r="L6">
         <v>0.17530282637954239</v>
       </c>
+      <c r="M6">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="N6">
+        <v>0.157265147756044</v>
+      </c>
+      <c r="O6">
+        <v>0.18814231124698999</v>
+      </c>
+      <c r="P6">
+        <v>0.177756560379944</v>
+      </c>
+      <c r="Q6">
+        <v>0.17762004434095199</v>
+      </c>
+      <c r="R6">
+        <v>0.177533485177094</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -754,35 +6389,70 @@
         <v>0.84</v>
       </c>
       <c r="F7">
+        <f t="shared" si="5"/>
+        <v>9.3333333333333333E-7</v>
+      </c>
+      <c r="G7">
+        <f>F7*$K$10</f>
+        <v>6.5769444065817702E-7</v>
+      </c>
+      <c r="H7">
+        <v>0.82341653000000004</v>
+      </c>
+      <c r="I7">
+        <f>G7*$K$11</f>
+        <v>5.5082352888505371E-7</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="6"/>
+        <v>5.4155647412704701E-7</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="7"/>
-        <v>9.3333333333333333E-7</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>6.5769444065817702E-7</v>
-      </c>
-      <c r="H7">
-        <v>0.83664125445269</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="8"/>
-        <v>5.5082352888505371E-7</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="9"/>
-        <v>5.5025430187881752E-7</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="10"/>
-        <v>1.033410841015424E-3</v>
+        <v>1.6823999469965552E-2</v>
       </c>
       <c r="L7">
         <v>1.6823687752355317E-2</v>
+      </c>
+      <c r="M7">
+        <v>1.0184E-2</v>
+      </c>
+      <c r="N7">
+        <v>1.2209936152071299E-2</v>
+      </c>
+      <c r="O7">
+        <v>1.29787070835964E-2</v>
+      </c>
+      <c r="P7">
+        <v>1.22569802925341E-2</v>
+      </c>
+      <c r="Q7">
+        <v>1.22945264084639E-2</v>
+      </c>
+      <c r="R7">
+        <v>1.2279617670768499E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>0.70467261499090394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>0.83750674300033001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Project/Electrified Reactor/Reaction mechanisms/Reference Data.xlsx
+++ b/Project/Electrified Reactor/Reaction mechanisms/Reference Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\repos_python\Project\Electrified Reactor\Reaction mechanisms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FB76D3-49B7-4ABB-B6DD-71FB462A94C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D8469C-F9A2-425A-8F9B-A838AAA2D4BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="13935" xr2:uid="{23DDCB53-3424-4285-9A3B-832EA3B4340E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,10 @@
   </si>
   <si>
     <t>(5.08965517,89.55172414)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -837,6 +841,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Gas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t>_5.08965 / Interface_89.55</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -926,27 +960,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$7</c:f>
+              <c:f>Sheet1!$R$2:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.6500541653314403E-3</c:v>
+                  <c:v>7.0288989346926501E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1768673655605E-2</c:v>
+                  <c:v>2.0557661529244001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1219793542796302E-2</c:v>
+                  <c:v>5.9529774502042603E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15871257353492799</c:v>
+                  <c:v>0.157017791969527</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18814231124698999</c:v>
+                  <c:v>0.177533485177094</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.29787070835964E-2</c:v>
+                  <c:v>1.2279617670768499E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -991,8 +1025,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>EXP_XCH4</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1054,8 +1144,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>SIM_XCH4</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2029,6 +2175,477 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1645616448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Scale</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> Factor </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
+              <a:t>미적용</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.8087248322147645E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9946164199192465E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2080536912751678E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15645973154362416</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17530282637954239</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6823687752355317E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$2:$S$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.9950546129576101E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7637187764270601E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2299633733244398E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7024831237695598E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.79793731381526E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0334108410158E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E21A-4C20-9E44-C4DCDC161B5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1645616448"/>
+        <c:axId val="1875740048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1645616448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>EXP_XCH4</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1875740048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1875740048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>SIM_XCH4</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2362,6 +2979,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4943,6 +5600,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5686,6 +6859,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="차트 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1B1D5A3-7CC4-4073-A66C-E66028C3377D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5986,10 +7197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DCFDE2-46D0-4EC7-BD6D-0B16CFFF6C28}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6002,7 +7213,7 @@
     <col min="16" max="16" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6054,8 +7265,11 @@
       <c r="R1" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>950</v>
       </c>
@@ -6078,14 +7292,14 @@
         <v>5.5999999999999983E-7</v>
       </c>
       <c r="G2">
-        <f>F2*$K$10</f>
+        <f t="shared" ref="G2:G7" si="0">F2*$K$10</f>
         <v>3.9461666439490607E-7</v>
       </c>
       <c r="H2">
         <v>0.83012914599999998</v>
       </c>
       <c r="I2">
-        <f>G2*$K$11</f>
+        <f t="shared" ref="I2:I7" si="1">G2*$K$11</f>
         <v>3.3049411733103207E-7</v>
       </c>
       <c r="J2">
@@ -6117,46 +7331,49 @@
       <c r="R2">
         <v>7.0288989346926501E-3</v>
       </c>
+      <c r="S2">
+        <v>3.9950546129576101E-4</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B7" si="0">A3+273.15</f>
+        <f t="shared" ref="B3:B7" si="2">A3+273.15</f>
         <v>1273.1500000000001</v>
       </c>
       <c r="C3">
         <v>2400</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D7" si="1">C3/1000000</f>
+        <f t="shared" ref="D3:D7" si="3">C3/1000000</f>
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="E3">
         <v>0.84</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F5" si="2">D3*E3/3600</f>
+        <f t="shared" ref="F3:F5" si="4">D3*E3/3600</f>
         <v>5.5999999999999983E-7</v>
       </c>
       <c r="G3">
-        <f>F3*$K$10</f>
+        <f t="shared" si="0"/>
         <v>3.9461666439490607E-7</v>
       </c>
       <c r="H3">
         <v>0.81242676599999997</v>
       </c>
       <c r="I3">
-        <f>G3*$K$11</f>
+        <f t="shared" si="1"/>
         <v>3.3049411733103207E-7</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J5" si="3">G3*H3</f>
+        <f t="shared" ref="J3:J5" si="5">G3*H3</f>
         <v>3.2059714046406087E-7</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K5" si="4">(I3-J3)/I3</f>
+        <f t="shared" ref="K3:K5" si="6">(I3-J3)/I3</f>
         <v>2.994600008888542E-2</v>
       </c>
       <c r="L3">
@@ -6180,46 +7397,49 @@
       <c r="R3">
         <v>2.0557661529244001E-2</v>
       </c>
+      <c r="S3">
+        <v>1.7637187764270601E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1050</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1323.15</v>
       </c>
       <c r="C4">
         <v>2400</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="E4">
         <v>0.84</v>
       </c>
       <c r="F4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5999999999999983E-7</v>
       </c>
       <c r="G4">
-        <f>F4*$K$10</f>
+        <f t="shared" si="0"/>
         <v>3.9461666439490607E-7</v>
       </c>
       <c r="H4">
         <v>0.78551348700000001</v>
       </c>
       <c r="I4">
-        <f>G4*$K$11</f>
+        <f t="shared" si="1"/>
         <v>3.3049411733103207E-7</v>
       </c>
       <c r="J4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.0997671207715142E-7</v>
       </c>
       <c r="K4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.2080999866420739E-2</v>
       </c>
       <c r="L4">
@@ -6243,46 +7463,49 @@
       <c r="R4">
         <v>5.9529774502042603E-2</v>
       </c>
+      <c r="S4">
+        <v>7.2299633733244398E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1100</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1373.15</v>
       </c>
       <c r="C5">
         <v>2400</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="E5">
         <v>0.84</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5999999999999983E-7</v>
       </c>
       <c r="G5">
-        <f>F5*$K$10</f>
+        <f t="shared" si="0"/>
         <v>3.9461666439490607E-7</v>
       </c>
       <c r="H5">
         <v>0.70647043799999998</v>
       </c>
       <c r="I5">
-        <f>G5*$K$11</f>
+        <f t="shared" si="1"/>
         <v>3.3049411733103207E-7</v>
       </c>
       <c r="J5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7878500773716829E-7</v>
       </c>
       <c r="K5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.15645999998865487</v>
       </c>
       <c r="L5">
@@ -6306,46 +7529,49 @@
       <c r="R5">
         <v>0.157017791969527</v>
       </c>
+      <c r="S5">
+        <v>2.7024831237695598E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1000</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1273.1500000000001</v>
       </c>
       <c r="C6">
         <v>240</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.4000000000000001E-4</v>
       </c>
       <c r="E6">
         <v>0.84</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F7" si="5">D6*E6/3600</f>
+        <f t="shared" ref="F6:F7" si="7">D6*E6/3600</f>
         <v>5.5999999999999999E-8</v>
       </c>
       <c r="G6">
-        <f>F6*$K$10</f>
+        <f t="shared" si="0"/>
         <v>3.9461666439490621E-8</v>
       </c>
       <c r="H6">
         <v>0.69068929800000001</v>
       </c>
       <c r="I6">
-        <f>G6*$K$11</f>
+        <f t="shared" si="1"/>
         <v>3.304941173310322E-8</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J7" si="6">G6*H6</f>
+        <f t="shared" ref="J6:J7" si="8">G6*H6</f>
         <v>2.7255750691001937E-8</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:K7" si="7">(I6-J6)/I6</f>
+        <f t="shared" ref="K6:K7" si="9">(I6-J6)/I6</f>
         <v>0.17530300051598768</v>
       </c>
       <c r="L6">
@@ -6369,46 +7595,49 @@
       <c r="R6">
         <v>0.177533485177094</v>
       </c>
+      <c r="S6">
+        <v>1.79793731381526E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1000</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1273.1500000000001</v>
       </c>
       <c r="C7">
         <v>4000</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E7">
         <v>0.84</v>
       </c>
       <c r="F7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.3333333333333333E-7</v>
       </c>
       <c r="G7">
-        <f>F7*$K$10</f>
+        <f t="shared" si="0"/>
         <v>6.5769444065817702E-7</v>
       </c>
       <c r="H7">
         <v>0.82341653000000004</v>
       </c>
       <c r="I7">
-        <f>G7*$K$11</f>
+        <f t="shared" si="1"/>
         <v>5.5082352888505371E-7</v>
       </c>
       <c r="J7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.4155647412704701E-7</v>
       </c>
       <c r="K7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.6823999469965552E-2</v>
       </c>
       <c r="L7">
@@ -6432,8 +7661,11 @@
       <c r="R7">
         <v>1.2279617670768499E-2</v>
       </c>
+      <c r="S7">
+        <v>1.0334108410158E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J10" t="s">
         <v>4</v>
       </c>
@@ -6441,7 +7673,7 @@
         <v>0.70467261499090394</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J11" t="s">
         <v>8</v>
       </c>
